--- a/data/long_bre/P24_4-Estudios-long_bre.xlsx
+++ b/data/long_bre/P24_4-Estudios-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,41</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>163,98%</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>70,89%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>129,22%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46,55%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9,74%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>79,25%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 17,08</t>
+          <t>-0,35; 13,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 12,67</t>
+          <t>-3,89; 11,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 7,02</t>
+          <t>-5,33; 7,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 487,38</t>
+          <t>-1,13; 14,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 285,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,05; 87,8</t>
+          <t>-21,22; 637,2</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-35,85; 181,81</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-33,67; 88,11</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-12,19; 262,15</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-19,94</t>
+          <t>-11,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,18</t>
+          <t>-13,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-23,91%</t>
+          <t>-13,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,43%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,49%</t>
+          <t>-14,4%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-17,28%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-7,99%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-19,31%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,09; -10,33</t>
+          <t>-23,97; 0,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 12,15</t>
+          <t>-24,13; -1,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 5,53</t>
+          <t>-15,27; 2,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,53; -13,06</t>
+          <t>-29,26; -0,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,89; 20,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 8,35</t>
+          <t>-27,34; -0,04</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-29,19; -2,93</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-19,38; 4,39</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-36,72; 0,05</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,53</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>9,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>38,6%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>77,04%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>31,53%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>30,56%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 16,94</t>
+          <t>-4,41; 16,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,4; 10,49</t>
+          <t>0,14; 17,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 9,48</t>
+          <t>-2,21; 12,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,64; 239,14</t>
+          <t>-6,69; 17,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,41; 90,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 84,35</t>
+          <t>-25,86; 197,13</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 221,31</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-12,76; 122,13</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-24,62; 131,73</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>125,63%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>98,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 8,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 7,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 13,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,51; 279,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 91,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,84; 197,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-10,09</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,28</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-12,96</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,66%</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-11,38%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-16,13%</t>
+          <t>150,57%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>40,52%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>92,51%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>22,44%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,88; -4,36</t>
+          <t>2,32; 11,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,44; -2,76</t>
+          <t>-1,46; 9,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,86; -7,07</t>
+          <t>3,79; 12,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,83; -5,26</t>
+          <t>-2,67; 7,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,41; -3,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,9; -9,42</t>
+          <t>24,98; 449,15</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-14,07; 151,43</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>31,16; 194,77</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-19,91; 94,31</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>-12,44</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,11</t>
+          <t>-8,95</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>-13,24</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>51,43%</t>
+          <t>-8,64</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>73,4%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,68%</t>
+          <t>-14,32%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-11,06%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-16,56%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-12,09%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 9,16</t>
+          <t>-19,97; -5,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 10,08</t>
+          <t>-16,44; -1,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 8,61</t>
+          <t>-18,75; -6,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,02; 126,52</t>
+          <t>-16,82; -0,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,82; 161,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 105,78</t>
+          <t>-22,33; -6,2</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-19,45; -2,52</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-22,53; -8,15</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-22,29; -1,59</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>107,1%</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>48,95%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>67,8%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>52,84%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>43,93%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>35,42%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,84; 10,64</t>
+          <t>-0,11; 12,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 8,47</t>
+          <t>-1,46; 10,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 6,4</t>
+          <t>-0,9; 9,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,37; 271,54</t>
+          <t>-0,56; 12,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-32,18; 164,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 91,77</t>
+          <t>-3,75; 188,86</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-13,59; 152,67</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-8,74; 113,44</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-3,14; 96,61</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-10,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-6,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-12,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,2%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-7,9%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,37; -2,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 2,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,8; -6,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,13; -3,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 3,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,78; -8,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,14</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>40,25%</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>208,32%</t>
+          <t>79,06%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>38,8%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>15,69%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>62,76%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 9,06</t>
+          <t>-0,1; 11,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 8,09</t>
+          <t>-4,68; 8,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,09; 15,26</t>
+          <t>-3,13; 6,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 127,87</t>
+          <t>-1,2; 9,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-26,95; 82,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>97,74; 466,08</t>
+          <t>-4,92; 276,69</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-36,22; 163,54</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-22,28; 80,22</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-16,52; 192,3</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>-11,06</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>-5,74</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>-12,72</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>132,12%</t>
+          <t>-8,44</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>43,26%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>47,55%</t>
+          <t>-12,86%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-7,33%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-15,13%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-11,11%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>4,2; 9,57</t>
+          <t>-18,15; -3,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,54; 7,33</t>
+          <t>-13,49; 2,91</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,51</t>
+          <t>-18,61; -7,07</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>60,31; 244,41</t>
+          <t>-15,92; 1,97</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>4,76; 99,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>16,07; 93,18</t>
+          <t>-20,49; -3,81</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-16,26; 3,85</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-21,53; -8,72</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-19,77; 2,66</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-12,46</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-10,91</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-14,62%</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-9,98%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-13,63%</t>
+          <t>78,89%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>18,19%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>205,8%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>22,04%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,88; -8,25</t>
+          <t>-0,09; 11,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,55; -2,97</t>
+          <t>-5,51; 7,88</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,94; -6,96</t>
+          <t>6,73; 16,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-18,28; -9,92</t>
+          <t>-6,18; 10,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-15,34; -3,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-18,03; -8,89</t>
+          <t>-6,38; 239,5</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-32,02; 83,03</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>91,29; 430,18</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-28,57; 90,19</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>58,54%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>34,06%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>61,85%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,1008 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2,28; 8,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 7,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>3,09; 9,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>18,82; 103,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 75,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>24,0; 108,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>7,3</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>7,57</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>128,13%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>96,49%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 11,87</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 15,09</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>32,88; 320,56</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 305,39</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-13,07</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-6,5</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-15,67%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-8,37%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-19,34; -5,67</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-17,43; 6,46</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-22,41; -7,19</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-20,72; 8,94</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>5,77</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>52,94%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-7,35%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 11,05</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-14,86; 7,65</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; 130,67</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-62,17; 90,4</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>6,5</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>4,43</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>4,28</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>120,35%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>50,59%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>45,49%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>44,62%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>3,65; 9,08</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 7,67</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 7,59</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 7,62</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>53,95; 206,97</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>8,64; 99,73</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>14,78; 85,34</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 96,75</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-12,23</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>-8,35</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-11,47</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>-9,77</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-14,44%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-10,54%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-14,36%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>-13,43%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-16,31; -8,4</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-12,69; -3,25</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-15,23; -7,7</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-14,89; -4,48</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-19,06; -10,25</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-15,64; -4,42</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-18,79; -9,98</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-19,67; -6,42</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>5,73</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>3,92</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>6,86</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>57,79%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>32,63%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>68,48%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>31,02%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>2,48; 9,06</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 7,44</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>3,51; 9,77</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 10,32</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>20,71; 107,17</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-5,45; 77,75</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>28,51; 117,3</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 69,74</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P24_4-Estudios-long_bre.xlsx
+++ b/data/long_bre/P24_4-Estudios-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -742,7 +742,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -844,7 +844,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -950,7 +950,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1052,7 +1052,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1154,7 +1154,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1362,7 +1362,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1464,7 +1464,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1672,7 +1672,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1774,7 +1774,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
